--- a/biology/Médecine/Nanisme_thanatophore/Nanisme_thanatophore.xlsx
+++ b/biology/Médecine/Nanisme_thanatophore/Nanisme_thanatophore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le nanisme thanatophore est le plus fréquent des nanismes létaux. Ce nanisme a une traduction échographique précoce permettant souvent le diagnostic anténatal.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot thanatophore, issu du grec, signifie porteur de mort. Cette maladie a en effet un très haut taux de létalité néonatale. C'est-à-dire que le décès survient rapidement après la naissance, généralement par des troubles de la respiration. Des cas atteignant un âge plus avancé voire l'âge adulte existent cependant, mais restent marginaux.
 </t>
@@ -543,7 +557,9 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On compte 1 cas pour 20 000 naissances.[Où ?]
 </t>
@@ -574,7 +590,9 @@
           <t>Description clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il existe deux types de nanisme thanatophore.
 Nanisme thanatophore type 1 :
@@ -611,7 +629,9 @@
           <t>Critère de diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raccourcissement très important des fémurs et des humérus
 Thorax très étroit
@@ -645,11 +665,48 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le plus souvent échographique mais un diagnostic par analyse moléculaire est possible.
-Différentiel
-On peut discuter devant certains aspects échographiques :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plus souvent échographique mais un diagnostic par analyse moléculaire est possible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nanisme_thanatophore</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nanisme_thanatophore</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Différentiel</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>On peut discuter devant certains aspects échographiques :
 le plus important est l'achondroplasie
 Le raccourcissement est supérieur à 80 % par rapport à la moyenne de l’âge gestationnel alors qu’il atteint 30 à 60 % pour le nanisme thanathophorique.
 les deux autres nanismes sont létaux
@@ -658,31 +715,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Nanisme_thanatophore</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nanisme_thanatophore</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nanisme_thanatophore</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nanisme_thanatophore</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Mutation du FGFR3 (Fibroblast growth factor receptor 3).
 Ce gène est localisé sur le bras court du chromosome 4.
@@ -698,37 +757,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Nanisme_thanatophore</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nanisme_thanatophore</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Traitement</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'existe aucun traitement pour cette pathologie. Les nouveau-nés porteurs de cette maladie décèdent très rapidement. Une interruption médicale de grossesse peut être proposée au parent.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
@@ -750,10 +778,45 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'existe aucun traitement pour cette pathologie. Les nouveau-nés porteurs de cette maladie décèdent très rapidement. Une interruption médicale de grossesse peut être proposée au parent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nanisme_thanatophore</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nanisme_thanatophore</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le risque empirique de récurrence chez les frères et sœurs est de 2 %.
 Le nanisme thanatophore représente l’exemple de maladies sporadiques en rapport avec une mutation de gène dominant avec « zéro fitness ». Ce concept signifie que le facteur responsable de la mutation disparaît immédiatement entraînant donc une mutation stable.
@@ -764,35 +827,37 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Nanisme_thanatophore</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nanisme_thanatophore</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nanisme_thanatophore</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nanisme_thanatophore</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Orphanet
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:187600 [1]
-(en) Barbara Karczeski, Garry R Cutting, Thanatophoric Dysplasia in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [2]
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:187600 
+(en) Barbara Karczeski, Garry R Cutting, Thanatophoric Dysplasia in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
